--- a/src/model_generator/robot_data/robot_data.xlsx
+++ b/src/model_generator/robot_data/robot_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>Robot Name</t>
   </si>
@@ -95,6 +95,18 @@
     <t>body.STL</t>
   </si>
   <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Mirror Name</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
     <t>Link Name</t>
   </si>
   <si>
@@ -113,6 +125,9 @@
     <t>2.39059365</t>
   </si>
   <si>
+    <t>Inertia(COM)</t>
+  </si>
+  <si>
     <t>0.00381223</t>
   </si>
   <si>
@@ -204,6 +219,15 @@
   </si>
   <si>
     <t>left_leg_hip_roll.STL</t>
+  </si>
+  <si>
+    <t>Mirror Parent Axis</t>
+  </si>
+  <si>
+    <t>Mirror STL Axis</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>left_hip_yaw</t>
@@ -262,9 +286,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -290,30 +314,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,9 +336,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,24 +366,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,13 +389,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,9 +404,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,15 +433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,6 +448,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -466,186 +490,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -693,7 +717,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -708,16 +732,18 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -727,8 +753,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -738,10 +768,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -756,71 +801,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1022,6 +1009,39 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,37 +1061,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,6 +1085,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1105,147 +1110,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,26 +1241,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,139 +1270,127 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,7 +1715,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1749,123 +1724,123 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1888,10 +1863,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1908,491 +1883,578 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="15"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" ht="15" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" ht="15"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" ht="15" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" ht="15"/>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" ht="15" spans="1:5">
+      <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="B42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" ht="15" spans="1:5">
-      <c r="A35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="21"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="30">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19 B39:E39">
+      <formula1>"revolute,continuous,prismatic,fixed,planar,ball"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21 B22:E22 B41:E41 B42:E42">
+      <formula1>"X,Y,Z"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
+      <formula1>"left,right"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/model_generator/robot_data/robot_data.xlsx
+++ b/src/model_generator/robot_data/robot_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>Robot Name</t>
   </si>
@@ -89,12 +89,15 @@
     <t>0.17272833</t>
   </si>
   <si>
-    <t>Mesh</t>
+    <t>Visual Mesh</t>
   </si>
   <si>
     <t>body.STL</t>
   </si>
   <si>
+    <t>Collision Mesh</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
@@ -215,67 +218,70 @@
     <t>Joint Type</t>
   </si>
   <si>
+    <t>prismatic</t>
+  </si>
+  <si>
+    <t>left_leg_hip_roll.STL</t>
+  </si>
+  <si>
+    <t>Mirror Parent Axis</t>
+  </si>
+  <si>
+    <t>Mirror STL Axis</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>left_hip_yaw</t>
+  </si>
+  <si>
+    <t>-0.00012288</t>
+  </si>
+  <si>
+    <t>0.01576460</t>
+  </si>
+  <si>
+    <t>0.10828703</t>
+  </si>
+  <si>
+    <t>3.79911511</t>
+  </si>
+  <si>
+    <t>0.00941292</t>
+  </si>
+  <si>
+    <t>0.00000766</t>
+  </si>
+  <si>
+    <t>0.00000238</t>
+  </si>
+  <si>
+    <t>0.01442888</t>
+  </si>
+  <si>
+    <t>-0.00055185</t>
+  </si>
+  <si>
+    <t>0.00698406</t>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
+    <t>-0.0682</t>
+  </si>
+  <si>
+    <t>-1.5708</t>
+  </si>
+  <si>
+    <t>-1.57</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
     <t>revolute</t>
-  </si>
-  <si>
-    <t>left_leg_hip_roll.STL</t>
-  </si>
-  <si>
-    <t>Mirror Parent Axis</t>
-  </si>
-  <si>
-    <t>Mirror STL Axis</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>left_hip_yaw</t>
-  </si>
-  <si>
-    <t>-0.00012288</t>
-  </si>
-  <si>
-    <t>0.01576460</t>
-  </si>
-  <si>
-    <t>0.10828703</t>
-  </si>
-  <si>
-    <t>3.79911511</t>
-  </si>
-  <si>
-    <t>0.00941292</t>
-  </si>
-  <si>
-    <t>0.00000766</t>
-  </si>
-  <si>
-    <t>0.00000238</t>
-  </si>
-  <si>
-    <t>0.01442888</t>
-  </si>
-  <si>
-    <t>-0.00055185</t>
-  </si>
-  <si>
-    <t>0.00698406</t>
-  </si>
-  <si>
-    <t>-0.017</t>
-  </si>
-  <si>
-    <t>-0.0682</t>
-  </si>
-  <si>
-    <t>-1.5708</t>
-  </si>
-  <si>
-    <t>-1.57</t>
-  </si>
-  <si>
-    <t>1.57</t>
   </si>
   <si>
     <t>left_leg_hip_yaw.STL</t>
@@ -669,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -771,56 +777,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -828,25 +789,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -855,26 +801,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -883,10 +816,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -896,65 +831,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -965,48 +847,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1124,7 +967,7 @@
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,7 +1000,7 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,19 +1018,19 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,7 +1066,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,13 +1084,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1256,11 +1099,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,95 +1146,41 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1712,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1723,135 +1512,150 @@
     <col min="1" max="16384" width="9.06666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" ht="15" spans="1:5">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="26" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:5">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" ht="15" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:E10"/>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
@@ -1863,10 +1667,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B42" sqref="B42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1876,37 +1680,37 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="12"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="15"/>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
@@ -1919,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
@@ -1929,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
         <v>34</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1946,26 +1750,26 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="16" t="s">
         <v>39</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1975,10 +1779,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="16" t="s">
         <v>41</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1990,251 +1794,249 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>42</v>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="16" t="s">
         <v>46</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="16" t="s">
         <v>51</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="15" spans="1:5">
-      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" ht="15" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" ht="15"/>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
-    </row>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" ht="15"/>
     <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>74</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="D29" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2244,172 +2046,196 @@
         <v>20</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>53</v>
+        <v>85</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" ht="15" spans="1:5">
+      <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" ht="15" spans="1:5">
-      <c r="A42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="13"/>
+      <c r="B44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
@@ -2424,28 +2250,31 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B29:B31"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19 B39:E39">
-      <formula1>"revolute,continuous,prismatic,fixed,planar,ball"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19 B40:E40">
+      <formula1>"revolute,continuous,prismatic,fixed,ball"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21 B22:E22 B41:E41 B42:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:E22 B23:E23 B43:E43 B44:E44">
       <formula1>"X,Y,Z"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">

--- a/src/model_generator/robot_data/robot_data.xlsx
+++ b/src/model_generator/robot_data/robot_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>Robot Name</t>
   </si>
@@ -218,7 +218,7 @@
     <t>Joint Type</t>
   </si>
   <si>
-    <t>prismatic</t>
+    <t>revolute</t>
   </si>
   <si>
     <t>left_leg_hip_roll.STL</t>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>1.57</t>
-  </si>
-  <si>
-    <t>revolute</t>
   </si>
   <si>
     <t>left_leg_hip_yaw.STL</t>
@@ -1504,7 +1501,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1670,7 +1667,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E42"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2184,7 +2181,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2195,7 +2192,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>

--- a/src/model_generator/robot_data/robot_data.xlsx
+++ b/src/model_generator/robot_data/robot_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>Robot Name</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>Mirror STL Axis</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>left_hip_yaw</t>
@@ -1501,7 +1498,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1667,7 +1664,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1958,7 +1955,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1970,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1997,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2014,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="18"/>
@@ -2027,13 +2024,13 @@
         <v>16</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2043,10 +2040,10 @@
         <v>20</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2059,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2073,10 +2070,10 @@
         <v>51</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2090,7 +2087,7 @@
         <v>52</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>51</v>
@@ -2121,7 +2118,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="18"/>
@@ -2134,7 +2131,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="19"/>
@@ -2192,7 +2189,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2214,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>

--- a/src/model_generator/robot_data/robot_data.xlsx
+++ b/src/model_generator/robot_data/robot_data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25215" windowHeight="17895" activeTab="1"/>
+    <workbookView windowWidth="25215" windowHeight="17895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
     <sheet name="left_leg" sheetId="2" r:id="rId2"/>
+    <sheet name="left_arm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="312">
   <si>
     <t>Robot Name</t>
   </si>
@@ -227,7 +228,7 @@
     <t>Mirror Parent Axis</t>
   </si>
   <si>
-    <t>Mirror STL Axis</t>
+    <t>Mirror Local Axis</t>
   </si>
   <si>
     <t>left_hip_yaw</t>
@@ -279,6 +280,678 @@
   </si>
   <si>
     <t>left_leg_hip_yaw.STL</t>
+  </si>
+  <si>
+    <t>left_hip_pitch</t>
+  </si>
+  <si>
+    <t>-0.05844086</t>
+  </si>
+  <si>
+    <t>0.00492907</t>
+  </si>
+  <si>
+    <t>0.02304337</t>
+  </si>
+  <si>
+    <t>5.30562514</t>
+  </si>
+  <si>
+    <t>0.01185844</t>
+  </si>
+  <si>
+    <t>0.00347724</t>
+  </si>
+  <si>
+    <t>-0.00657871</t>
+  </si>
+  <si>
+    <t>0.07032698</t>
+  </si>
+  <si>
+    <t>0.00060915</t>
+  </si>
+  <si>
+    <t>0.07514457</t>
+  </si>
+  <si>
+    <t>-0.020</t>
+  </si>
+  <si>
+    <t>0.1205</t>
+  </si>
+  <si>
+    <t>-1.919862144</t>
+  </si>
+  <si>
+    <t>0.78539815</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>left_leg_hip_pitch.STL</t>
+  </si>
+  <si>
+    <t>left_knee</t>
+  </si>
+  <si>
+    <t>-0.17686628</t>
+  </si>
+  <si>
+    <t>0.00290708</t>
+  </si>
+  <si>
+    <t>-0.00002416</t>
+  </si>
+  <si>
+    <t>2.78469232</t>
+  </si>
+  <si>
+    <t>0.00224858</t>
+  </si>
+  <si>
+    <t>-0.00064522</t>
+  </si>
+  <si>
+    <t>0.00034901</t>
+  </si>
+  <si>
+    <t>0.02247360</t>
+  </si>
+  <si>
+    <t>-0.00000111</t>
+  </si>
+  <si>
+    <t>0.02359583</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>-0.087266461</t>
+  </si>
+  <si>
+    <t>2.443460911</t>
+  </si>
+  <si>
+    <t>left_leg_knee.STL</t>
+  </si>
+  <si>
+    <t>Mirror Limit</t>
+  </si>
+  <si>
+    <t>left_toe_pitch</t>
+  </si>
+  <si>
+    <t>0.08772028</t>
+  </si>
+  <si>
+    <t>0.00001572</t>
+  </si>
+  <si>
+    <t>0.00001128</t>
+  </si>
+  <si>
+    <t>0.00001148</t>
+  </si>
+  <si>
+    <t>-0.377</t>
+  </si>
+  <si>
+    <t>-1.047197533</t>
+  </si>
+  <si>
+    <t>0.523598767</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>left_leg_toe_pitch.STL</t>
+  </si>
+  <si>
+    <t>left_toe_roll</t>
+  </si>
+  <si>
+    <t>-0.04183694</t>
+  </si>
+  <si>
+    <t>0.00003333</t>
+  </si>
+  <si>
+    <t>0.02612972</t>
+  </si>
+  <si>
+    <t>0.90432039</t>
+  </si>
+  <si>
+    <t>0.00532431</t>
+  </si>
+  <si>
+    <t>0.00000010</t>
+  </si>
+  <si>
+    <t>0.00024374</t>
+  </si>
+  <si>
+    <t>0.00494869</t>
+  </si>
+  <si>
+    <t>-0.00000302</t>
+  </si>
+  <si>
+    <t>0.00073321</t>
+  </si>
+  <si>
+    <t>-1.5707963</t>
+  </si>
+  <si>
+    <t>-0.488692182</t>
+  </si>
+  <si>
+    <t>0.488692182</t>
+  </si>
+  <si>
+    <t>left_leg_foot.STL</t>
+  </si>
+  <si>
+    <t>left_toe_A</t>
+  </si>
+  <si>
+    <t>0.00009121</t>
+  </si>
+  <si>
+    <t>-0.01877013</t>
+  </si>
+  <si>
+    <t>-0.00172194</t>
+  </si>
+  <si>
+    <t>0.06362578</t>
+  </si>
+  <si>
+    <t>0.00004436</t>
+  </si>
+  <si>
+    <t>-0.00000004</t>
+  </si>
+  <si>
+    <t>0.00001212</t>
+  </si>
+  <si>
+    <t>-0.00000800</t>
+  </si>
+  <si>
+    <t>0.00005103</t>
+  </si>
+  <si>
+    <t>-0.138</t>
+  </si>
+  <si>
+    <t>-0.0315</t>
+  </si>
+  <si>
+    <t>urdf_fixed_xml_revolute</t>
+  </si>
+  <si>
+    <t>left_leg_rod1_long.STL</t>
+  </si>
+  <si>
+    <t>left_toe_A_rod</t>
+  </si>
+  <si>
+    <t>-0.11950000</t>
+  </si>
+  <si>
+    <t>-0.00001491</t>
+  </si>
+  <si>
+    <t>0.08203113</t>
+  </si>
+  <si>
+    <t>0.00000228</t>
+  </si>
+  <si>
+    <t>0.00078598</t>
+  </si>
+  <si>
+    <t>0.00078738</t>
+  </si>
+  <si>
+    <t>-0.063</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>left_leg_rod2_long.STL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>left_toe_B</t>
+  </si>
+  <si>
+    <t>-0.00009121</t>
+  </si>
+  <si>
+    <t>0.00172194</t>
+  </si>
+  <si>
+    <t>0.00000004</t>
+  </si>
+  <si>
+    <t>0.00000800</t>
+  </si>
+  <si>
+    <t>-0.232</t>
+  </si>
+  <si>
+    <t>0.0315</t>
+  </si>
+  <si>
+    <t>left_leg_rod1_short.STL</t>
+  </si>
+  <si>
+    <t>left_toe_B_rod</t>
+  </si>
+  <si>
+    <t>-0.07250000</t>
+  </si>
+  <si>
+    <t>0.00000653</t>
+  </si>
+  <si>
+    <t>-0.00002437</t>
+  </si>
+  <si>
+    <t>0.08225550</t>
+  </si>
+  <si>
+    <t>0.00000274</t>
+  </si>
+  <si>
+    <t>0.00031414</t>
+  </si>
+  <si>
+    <t>0.00031573</t>
+  </si>
+  <si>
+    <t>left_leg_rod2_short.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link01</t>
+  </si>
+  <si>
+    <t>0.00000249</t>
+  </si>
+  <si>
+    <t>0.01038065</t>
+  </si>
+  <si>
+    <t>0.03761745</t>
+  </si>
+  <si>
+    <t>0.23884197</t>
+  </si>
+  <si>
+    <t>0.00044830</t>
+  </si>
+  <si>
+    <t>0.00024895</t>
+  </si>
+  <si>
+    <t>0.00006606</t>
+  </si>
+  <si>
+    <t>0.00040350</t>
+  </si>
+  <si>
+    <t>-0.03779</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.3421</t>
+  </si>
+  <si>
+    <t>-2.967</t>
+  </si>
+  <si>
+    <t>2.967</t>
+  </si>
+  <si>
+    <t>left_arm_link01.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link02</t>
+  </si>
+  <si>
+    <t>-0.00003961</t>
+  </si>
+  <si>
+    <t>-0.05209875</t>
+  </si>
+  <si>
+    <t>-0.00115698</t>
+  </si>
+  <si>
+    <t>3.09638867</t>
+  </si>
+  <si>
+    <t>0.01280293</t>
+  </si>
+  <si>
+    <t>-0.00000268</t>
+  </si>
+  <si>
+    <t>0.00000182</t>
+  </si>
+  <si>
+    <t>0.00266575</t>
+  </si>
+  <si>
+    <t>0.00017645</t>
+  </si>
+  <si>
+    <t>0.01264891</t>
+  </si>
+  <si>
+    <t>-0.523598767</t>
+  </si>
+  <si>
+    <t>1.658062761</t>
+  </si>
+  <si>
+    <t>left_arm_link02.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link03</t>
+  </si>
+  <si>
+    <t>0.00000225</t>
+  </si>
+  <si>
+    <t>0.00035500</t>
+  </si>
+  <si>
+    <t>0.08376422</t>
+  </si>
+  <si>
+    <t>1.37452988</t>
+  </si>
+  <si>
+    <t>0.00163610</t>
+  </si>
+  <si>
+    <t>0.00000081</t>
+  </si>
+  <si>
+    <t>-0.00000378</t>
+  </si>
+  <si>
+    <t>0.00181828</t>
+  </si>
+  <si>
+    <t>0.00001043</t>
+  </si>
+  <si>
+    <t>0.00109760</t>
+  </si>
+  <si>
+    <t>-0.154</t>
+  </si>
+  <si>
+    <t>left_arm_link03.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link04</t>
+  </si>
+  <si>
+    <t>-0.00002118</t>
+  </si>
+  <si>
+    <t>-0.07109905</t>
+  </si>
+  <si>
+    <t>-0.00481815</t>
+  </si>
+  <si>
+    <t>0.70457441</t>
+  </si>
+  <si>
+    <t>0.00064706</t>
+  </si>
+  <si>
+    <t>0.00000321</t>
+  </si>
+  <si>
+    <t>-0.00000120</t>
+  </si>
+  <si>
+    <t>0.00037557</t>
+  </si>
+  <si>
+    <t>0.00014782</t>
+  </si>
+  <si>
+    <t>0.00056821</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>-2.094395067</t>
+  </si>
+  <si>
+    <t>left_arm_link04.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link05</t>
+  </si>
+  <si>
+    <t>-0.00221884</t>
+  </si>
+  <si>
+    <t>0.06554799</t>
+  </si>
+  <si>
+    <t>0.12244729</t>
+  </si>
+  <si>
+    <t>0.00031756</t>
+  </si>
+  <si>
+    <t>0.00002042</t>
+  </si>
+  <si>
+    <t>0.00033014</t>
+  </si>
+  <si>
+    <t>0.00003000</t>
+  </si>
+  <si>
+    <t>-0.103</t>
+  </si>
+  <si>
+    <t>-2.87979</t>
+  </si>
+  <si>
+    <t>2.87979</t>
+  </si>
+  <si>
+    <t>left_arm_link05.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link06</t>
+  </si>
+  <si>
+    <t>0.00018011</t>
+  </si>
+  <si>
+    <t>-0.00021701</t>
+  </si>
+  <si>
+    <t>0.02504627</t>
+  </si>
+  <si>
+    <t>0.00000197</t>
+  </si>
+  <si>
+    <t>0.00000173</t>
+  </si>
+  <si>
+    <t>0.00000071</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.1595</t>
+  </si>
+  <si>
+    <t>-0.785398</t>
+  </si>
+  <si>
+    <t>0.785398</t>
+  </si>
+  <si>
+    <t>left_arm_link06.STL</t>
+  </si>
+  <si>
+    <t>left_arm_link07</t>
+  </si>
+  <si>
+    <t>-0.01211757</t>
+  </si>
+  <si>
+    <t>-0.00009712</t>
+  </si>
+  <si>
+    <t>0.00886324</t>
+  </si>
+  <si>
+    <t>0.05050219</t>
+  </si>
+  <si>
+    <t>0.00000828</t>
+  </si>
+  <si>
+    <t>0.00000006</t>
+  </si>
+  <si>
+    <t>-0.00000179</t>
+  </si>
+  <si>
+    <t>0.00001140</t>
+  </si>
+  <si>
+    <t>0.00001294</t>
+  </si>
+  <si>
+    <t>-0.5236</t>
+  </si>
+  <si>
+    <t>0.5236</t>
+  </si>
+  <si>
+    <t>left_arm_link07.STL</t>
+  </si>
+  <si>
+    <t>left_wrist_motor_A</t>
+  </si>
+  <si>
+    <t>0.00013884</t>
+  </si>
+  <si>
+    <t>0.00055850</t>
+  </si>
+  <si>
+    <t>-0.05078467</t>
+  </si>
+  <si>
+    <t>0.22783320</t>
+  </si>
+  <si>
+    <t>0.00013539</t>
+  </si>
+  <si>
+    <t>0.00013685</t>
+  </si>
+  <si>
+    <t>0.00002895</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.02245</t>
+  </si>
+  <si>
+    <t>0.0245</t>
+  </si>
+  <si>
+    <t>-3.126778944</t>
+  </si>
+  <si>
+    <t>left_arm_wrist_motor_A.STL</t>
+  </si>
+  <si>
+    <t>left_wrist_rod_A</t>
+  </si>
+  <si>
+    <t>-0.00000638</t>
+  </si>
+  <si>
+    <t>0.00010875</t>
+  </si>
+  <si>
+    <t>-0.00108426</t>
+  </si>
+  <si>
+    <t>0.01468271</t>
+  </si>
+  <si>
+    <t>0.00000055</t>
+  </si>
+  <si>
+    <t>0.00000092</t>
+  </si>
+  <si>
+    <t>0.00000049</t>
+  </si>
+  <si>
+    <t>0.00055</t>
+  </si>
+  <si>
+    <t>-0.135</t>
+  </si>
+  <si>
+    <t>3.1415926</t>
+  </si>
+  <si>
+    <t>-0.01199</t>
+  </si>
+  <si>
+    <t>0.01204</t>
+  </si>
+  <si>
+    <t>urdf_fixed_xml_prismatic</t>
+  </si>
+  <si>
+    <t>left_arm_wrist_rod_A.STL</t>
+  </si>
+  <si>
+    <t>left_wrist_motor_B</t>
+  </si>
+  <si>
+    <t>-0.02245</t>
+  </si>
+  <si>
+    <t>left_wrist_rod_B</t>
   </si>
 </sst>
 </file>
@@ -286,9 +959,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -314,36 +987,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,85 +1008,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,6 +1027,104 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +1163,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,13 +1223,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,61 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,49 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,25 +1325,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,17 +1526,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +1543,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,8 +1600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,183 +1620,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,21 +1832,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1507,7 +2165,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1518,7 +2176,7 @@
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1529,10 +2187,10 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1629,12 +2287,12 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1661,10 +2319,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="K182" sqref="K182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2228,8 +2886,2144 @@
       <c r="D44" s="5"/>
       <c r="E44" s="15"/>
     </row>
+    <row r="45" ht="15"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" ht="15" spans="1:5">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" ht="15"/>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="19"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" ht="15" spans="1:5">
+      <c r="A86" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" ht="15"/>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="7"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="18"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="19"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="19"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="19"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="19"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="19"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" ht="15" spans="1:5">
+      <c r="A107" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" ht="15"/>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="18"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="7"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="7"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="18"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="19"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="19"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="19"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="20"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="19"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="19"/>
+    </row>
+    <row r="128" ht="15" spans="1:5">
+      <c r="A128" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" ht="15"/>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="16"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="18"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="18"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="19"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="19"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="19"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="19"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="19"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="20"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="19"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="19"/>
+    </row>
+    <row r="149" ht="15" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="15"/>
+    </row>
+    <row r="150" ht="15"/>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="16"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="18"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="7"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="18"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="11"/>
+      <c r="E162" s="19"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="19"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="19"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="19"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="19"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="20"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="19"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="19"/>
+    </row>
+    <row r="170" ht="15" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" ht="15"/>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="16"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="8"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="18"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="18"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" s="11"/>
+      <c r="E183" s="19"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="19"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" s="11"/>
+      <c r="E185" s="19"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="19"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="19"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="20"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="19"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="19"/>
+    </row>
+    <row r="191" ht="15" spans="1:5">
+      <c r="A191" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" ht="15"/>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="16"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D196" s="10"/>
+      <c r="E196" s="18"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="7"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="7"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D203" s="10"/>
+      <c r="E203" s="18"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D204" s="11"/>
+      <c r="E204" s="19"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="19"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="19"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="19"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="19"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="20"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="19"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="19"/>
+    </row>
+    <row r="212" ht="15" spans="1:5">
+      <c r="A212" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="152">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
@@ -2258,23 +5052,3306 @@
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="B186:E186"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A197:A199"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B197:B199"/>
   </mergeCells>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:E22 B43:E43 B64:E64 B85:E85 B106:E106 B127:E127 B148:E148 B169:E169 B190:E190 B211:E211">
+      <formula1>"X,Y,Z"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19 B40:E40">
-      <formula1>"revolute,continuous,prismatic,fixed,ball"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:E22 B23:E23 B43:E43 B44:E44">
-      <formula1>"X,Y,Z"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19 B40:E40 B61:E61 B82:E82 B103:E103 B124:E124 B145:E145 B166:E166 B187:E187 B208:E208">
+      <formula1>"revolute,continuous,prismatic,fixed,ball,urdf_fixed_xml_revolute,urdf_fixed_xml_prismatic"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
       <formula1>"left,right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1 B23:E23 B44:E44 B65:E65 B86:E86 B107:E107 B128:E128 B149:E149 B170:E170 B191:E191 B212:E212">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I198" sqref="I198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="16384" width="9.06666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="15" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" ht="15" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" ht="15"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" ht="15" spans="1:5">
+      <c r="A44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" ht="15"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="20"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" ht="15" spans="1:5">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" ht="15"/>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="19"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" ht="15" spans="1:5">
+      <c r="A86" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" ht="15"/>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="7"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="18"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="19"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="19"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="19"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="19"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="19"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" ht="15" spans="1:5">
+      <c r="A107" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" ht="15"/>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="18"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="7"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="7"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="18"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="19"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="19"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="19"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="19"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="20"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="19"/>
+    </row>
+    <row r="128" ht="15" spans="1:5">
+      <c r="A128" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" ht="15"/>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="16"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="18"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="18"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="19"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="19"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="19"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="19"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="19"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="19"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="20"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="19"/>
+    </row>
+    <row r="149" ht="15" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="15"/>
+    </row>
+    <row r="150" ht="15"/>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="16"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="18"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="7"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="18"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D162" s="11"/>
+      <c r="E162" s="19"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="19"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="19"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="19"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="19"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="19"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="20"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="19"/>
+    </row>
+    <row r="170" ht="15" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" ht="15"/>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="16"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="8"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="18"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="18"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D183" s="11"/>
+      <c r="E183" s="19"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="19"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D185" s="11"/>
+      <c r="E185" s="19"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="19"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="19"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="19"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="20"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="19"/>
+    </row>
+    <row r="191" ht="15" spans="1:5">
+      <c r="A191" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" ht="15"/>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="16"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D196" s="10"/>
+      <c r="E196" s="18"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="7"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="7"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D203" s="10"/>
+      <c r="E203" s="18"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="11"/>
+      <c r="E204" s="19"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="19"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="19"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="19"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="19"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="19"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="20"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="19"/>
+    </row>
+    <row r="212" ht="15" spans="1:5">
+      <c r="A212" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="15"/>
+    </row>
+    <row r="213" ht="15"/>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="16"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="8"/>
+      <c r="E215" s="17"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E216" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D217" s="10"/>
+      <c r="E217" s="18"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E218" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="7"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="7"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E222" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D224" s="10"/>
+      <c r="E224" s="18"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" s="19"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D226" s="11"/>
+      <c r="E226" s="19"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="19"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="19"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="19"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="19"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="20"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="19"/>
+    </row>
+    <row r="233" ht="15" spans="1:5">
+      <c r="A233" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="167">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="B186:E186"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C226:E226"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B218:B220"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:E22 B43:E43 B64:E64 B85:E85 B106:E106 B127:E127 B148:E148 B169:E169 B190:E190 B211:E211 B232:E232">
+      <formula1>"X,Y,Z"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21 B42:E42 B63:E63 B84:E84 B105:E105 B126:E126 B147:E147 B168:E168 B189:E189 B210:E210 B231:E231"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19 B40:E40 B61:E61 B82:E82 B103:E103 B124:E124 B145:E145 B166:E166 B187:E187 B208:E208 B229:E229">
+      <formula1>"revolute,continuous,prismatic,fixed,ball,urdf_fixed_xml_revolute,urdf_fixed_xml_prismatic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
+      <formula1>"left,right"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1 B23:E23 B44:E44 B65:E65 B86:E86 B107:E107 B128:E128 B149:E149 B170:E170 B191:E191 B212:E212 B233:E233">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
